--- a/Question_Set2/Software skills/ITEngineering Microsoft 365.xlsx
+++ b/Question_Set2/Software skills/ITEngineering Microsoft 365.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are the MS Teams administrator in your company. You have been instructed to use the MS Teams admin center to remove the chat tab in Microsoft Teams for all users.Using the MS Teams admin center, where should you go to achieve the above request?', 'ques_type': 2, 'options': ['Teams Apps &amp;gt Setup Policies ', 'Teams Apps &amp;gt Customize Store', 'Teams Apps &amp;gt Permission Policies', 'Teams Apps &amp;gt Manage Apps'], 'score': 'Teams Apps &amp;gt Setup Policies '}, {'title': 'You recently made some changes on your local Active Directory, and you want the current changes to reflect immediately in Office 365.What type of sync should you perform?', 'ques_type': 2, 'options': ['Force sync', ' Initial sync', 'Delta sync', 'Partial sync    '], 'score': 'Delta sync'}, {'title': 'Jason worked as a project manager in your company, but he resigned a month ago. Jason had shared current project documents with his colleagues, but they haven’t been able to access the documents since Jason left.You are a company admin, and you are trying to restore access to these documents, which Jason had shared from his OneDrive.What should you do next to recover the documents?', 'ques_type': 2, 'options': [' Sign in to Jason’s account and check his OneDrive recycle bin.', 'Check the second-stage recycle bin of the SharePoint site.', 'Check the user’s In-Place Archive folder.', 'Run a PowerShell script to recover deleted files from Jason’s account.'], 'score': 'Run a PowerShell script to recover deleted files from Jason’s account.'}, {'title': 'A staff member in your organization is suspected of inappropriately sharing confidential information, and you have been tasked with performing an eDiscovery search on their emails. You completed the search, but you are unable to export the results of the search.Which of the following roles is required for the export?', 'ques_type': 2, 'options': ['eDiscovery administrator', 'eDiscovery manager', 'Exchange administrator  ', 'Global administrator'], 'score': 'eDiscovery administrator'}]</t>
+    <t>questions = [
+    {
+        "title": "You are the MS Teams administrator in your company. You have been instructed to use the MS Teams admin center to remove the chat tab in Microsoft Teams for all users.Using the MS Teams admin center, where should you go to achieve the above request?",
+        "ques_type": 2,
+        "options": [
+            "Teams Apps &amp;gt Setup Policies ",
+            "Teams Apps &amp;gt Customize Store",
+            "Teams Apps &amp;gt Permission Policies",
+            "Teams Apps &amp;gt Manage Apps"
+        ],
+        "score": "Teams Apps &amp;gt Setup Policies"
+    },
+    {
+        "title": "You recently made some changes on your local Active Directory, and you want the current changes to reflect immediately in Office 365.What type of sync should you perform?",
+        "ques_type": 2,
+        "options": [
+            "Force sync",
+            " Initial sync",
+            "Delta sync",
+            "Partial sync    "
+        ],
+        "score": "Delta sync"
+    },
+    {
+        "title": "Jason worked as a project manager in your company, but he resigned a month ago. Jason had shared current project documents with his colleagues, but they haven\u2019t been able to access the documents since Jason left.You are a company admin, and you are trying to restore access to these documents, which Jason had shared from his OneDrive.What should you do next to recover the documents?",
+        "ques_type": 2,
+        "options": [
+            " Sign in to Jason\u2019s account and check his OneDrive recycle bin.",
+            "Check the second-stage recycle bin of the SharePoint site.",
+            "Check the user\u2019s In-Place Archive folder.",
+            "Run a PowerShell script to recover deleted files from Jason\u2019s account."
+        ],
+        "score": "Run a PowerShell script to recover deleted files from Jason\u2019s account."
+    },
+    {
+        "title": "A staff member in your organization is suspected of inappropriately sharing confidential information, and you have been tasked with performing an eDiscovery search on their emails. You completed the search, but you are unable to export the results of the search.Which of the following roles is required for the export?",
+        "ques_type": 2,
+        "options": [
+            "eDiscovery administrator",
+            "eDiscovery manager",
+            "Exchange administrator  ",
+            "Global administrator"
+        ],
+        "score": "eDiscovery administrator"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
